--- a/machine_cost_tables.xlsx
+++ b/machine_cost_tables.xlsx
@@ -572,10 +572,10 @@
         <v>200000</v>
       </c>
       <c r="D2">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>1872</v>
@@ -587,7 +587,7 @@
         <v>0.649230769231</v>
       </c>
       <c r="I2">
-        <v>73.294341172</v>
+        <v>56.5070150452</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -601,10 +601,10 @@
         <v>374000</v>
       </c>
       <c r="D3">
-        <v>17000</v>
+        <v>74800</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>1872</v>
@@ -616,7 +616,7 @@
         <v>0.649230769231</v>
       </c>
       <c r="I3">
-        <v>120.287436828</v>
+        <v>87.3352722135</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -630,7 +630,7 @@
         <v>255000</v>
       </c>
       <c r="D4">
-        <v>17000</v>
+        <v>51000</v>
       </c>
       <c r="E4">
         <v>7.5</v>
@@ -645,7 +645,7 @@
         <v>0.649230769231</v>
       </c>
       <c r="I4">
-        <v>76.2966377139</v>
+        <v>74.7452978886</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -659,7 +659,7 @@
         <v>118056</v>
       </c>
       <c r="D5">
-        <v>17000</v>
+        <v>23611.2</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -674,7 +674,7 @@
         <v>0.666666666667</v>
       </c>
       <c r="I5">
-        <v>43.4864000665</v>
+        <v>43.2408100045</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -717,7 +717,7 @@
         <v>137949</v>
       </c>
       <c r="D7">
-        <v>30000</v>
+        <v>27589.8</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -732,7 +732,7 @@
         <v>0.649230769231</v>
       </c>
       <c r="I7">
-        <v>42.6958168686</v>
+        <v>42.7877603491</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -746,7 +746,7 @@
         <v>270000</v>
       </c>
       <c r="D8">
-        <v>30000</v>
+        <v>54000</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -761,7 +761,7 @@
         <v>0.833333333333</v>
       </c>
       <c r="I8">
-        <v>56.2220111721</v>
+        <v>56.767622612</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -775,7 +775,7 @@
         <v>505000</v>
       </c>
       <c r="D9">
-        <v>30000</v>
+        <v>101000</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -790,7 +790,7 @@
         <v>0.9375</v>
       </c>
       <c r="I9">
-        <v>100.284909287</v>
+        <v>99.513712625</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +837,7 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>33.1259873618</v>
+        <v>14.4813059505</v>
       </c>
       <c r="D2">
         <v>13.4290440678</v>
@@ -860,7 +860,7 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>64.6228278041</v>
+        <v>27.0800421274</v>
       </c>
       <c r="D3">
         <v>16.3666474576</v>
@@ -883,7 +883,7 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>28.7212568018</v>
+        <v>24.6182201159</v>
       </c>
       <c r="D4">
         <v>16.7863050847</v>
@@ -906,7 +906,7 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>11.133974359</v>
+        <v>10.4055769231</v>
       </c>
       <c r="D5">
         <v>11.5405847458</v>
@@ -952,7 +952,7 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>12.2128320004</v>
+        <v>12.485510466</v>
       </c>
       <c r="D7">
         <v>7.2390940678</v>
@@ -975,7 +975,7 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>8.46153846154</v>
+        <v>7.61538461538</v>
       </c>
       <c r="D8">
         <v>16.681390678</v>
@@ -998,7 +998,7 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>29.7720797721</v>
+        <v>25.3219373219</v>
       </c>
       <c r="D9">
         <v>27.8023177966</v>
@@ -1301,16 +1301,16 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>36600</v>
+        <v>16000</v>
       </c>
       <c r="D2">
-        <v>15216</v>
+        <v>15360</v>
       </c>
       <c r="E2">
-        <v>3804</v>
+        <v>3840</v>
       </c>
       <c r="F2">
-        <v>3804</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1321,16 +1321,16 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>71400</v>
+        <v>29920</v>
       </c>
       <c r="D3">
-        <v>27744</v>
+        <v>28723.2</v>
       </c>
       <c r="E3">
-        <v>6936</v>
+        <v>7180.8</v>
       </c>
       <c r="F3">
-        <v>6936</v>
+        <v>7180.8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1341,16 +1341,16 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>31733.3333333</v>
+        <v>27200</v>
       </c>
       <c r="D4">
-        <v>18224</v>
+        <v>19992</v>
       </c>
       <c r="E4">
-        <v>4556</v>
+        <v>4998</v>
       </c>
       <c r="F4">
-        <v>4556</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1361,16 +1361,16 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>12632</v>
+        <v>11805.6</v>
       </c>
       <c r="D5">
-        <v>8861.28</v>
+        <v>9208.368</v>
       </c>
       <c r="E5">
-        <v>2215.32</v>
+        <v>2302.092</v>
       </c>
       <c r="F5">
-        <v>2215.32</v>
+        <v>2302.092</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1401,16 +1401,16 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>13493.625</v>
+        <v>13794.9</v>
       </c>
       <c r="D7">
-        <v>10886.5575</v>
+        <v>10760.022</v>
       </c>
       <c r="E7">
-        <v>2721.639375</v>
+        <v>2690.0055</v>
       </c>
       <c r="F7">
-        <v>2721.639375</v>
+        <v>2690.0055</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1421,16 +1421,16 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>12000</v>
+        <v>10800</v>
       </c>
       <c r="D8">
-        <v>18720</v>
+        <v>20088</v>
       </c>
       <c r="E8">
-        <v>4680</v>
+        <v>5022</v>
       </c>
       <c r="F8">
-        <v>4680</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1441,16 +1441,16 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>47500</v>
+        <v>40400</v>
       </c>
       <c r="D9">
-        <v>34950</v>
+        <v>38784</v>
       </c>
       <c r="E9">
-        <v>8737.5</v>
+        <v>9696</v>
       </c>
       <c r="F9">
-        <v>8737.5</v>
+        <v>9696</v>
       </c>
     </row>
   </sheetData>

--- a/machine_cost_tables.xlsx
+++ b/machine_cost_tables.xlsx
@@ -575,7 +575,7 @@
         <v>40000</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>1872</v>
@@ -587,7 +587,7 @@
         <v>0.649230769231</v>
       </c>
       <c r="I2">
-        <v>56.5070150452</v>
+        <v>70.8685879997</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -604,7 +604,7 @@
         <v>74800</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>1872</v>
@@ -616,7 +616,7 @@
         <v>0.649230769231</v>
       </c>
       <c r="I3">
-        <v>87.3352722135</v>
+        <v>114.191413638</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -837,7 +837,7 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>14.4813059505</v>
+        <v>28.962611901</v>
       </c>
       <c r="D2">
         <v>13.4290440678</v>
@@ -860,7 +860,7 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>27.0800421274</v>
+        <v>54.1600842549</v>
       </c>
       <c r="D3">
         <v>16.3666474576</v>
@@ -1301,16 +1301,16 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="D2">
-        <v>15360</v>
+        <v>16320</v>
       </c>
       <c r="E2">
-        <v>3840</v>
+        <v>4080</v>
       </c>
       <c r="F2">
-        <v>3840</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1321,16 +1321,16 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>29920</v>
+        <v>59840</v>
       </c>
       <c r="D3">
-        <v>28723.2</v>
+        <v>30518.4</v>
       </c>
       <c r="E3">
-        <v>7180.8</v>
+        <v>7629.6</v>
       </c>
       <c r="F3">
-        <v>7180.8</v>
+        <v>7629.6</v>
       </c>
     </row>
     <row r="4" spans="1:6">

--- a/machine_cost_tables.xlsx
+++ b/machine_cost_tables.xlsx
@@ -130,21 +130,10 @@
     <t xml:space="preserve">Mobile walking excavator, machine works on steep slopes ranging from 30-60 degrees. </t>
   </si>
   <si>
-    <t>Prime Tech PT-175 Dedicated Carrier with FAE 140/U/ST-175 Mulching head with C-type teeth.
-Mechanical push-frame with guide pins for 140/U-175
-Rear winch with 5.6 t pulling power
-Rear view camera, with extra display
-Comfort driver's seat (heated and with pneumatic suspension)
-Reversible fan for the engine radiator (including compressor)
-Additional handle for emergency exit (to open it up from the outside)
-All cab windows in 12mm Lexan Margard
-Rock guards for lower rollers
-STD-500 mm tracks-single grouser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takeuchi TL12 high flow track loader with FAE UML/SSL/VT-150 mastication head, with tooth type C/3 (standard)
-TL12 with ROPS/FOPS Cab with air conditioning/Heat, Defroster, 17.7" rubber tracks, hydraulic quick attach, roll up Lexan door, High Flow Auxiliary Hydraulics w/second auxiliary line.
-FAE UML/SSL/VT-150 Universal forestry mulcher for skid steer with push-frame. </t>
+    <t>Prime Tech PT-175 Dedicated Carrier with FAE 140/U/ST-175 Mulching head with C-type teeth._x000D__x000D_Mechanical push-frame with guide pins for 140/U-175_x000D_Rear winch with 5.6 t pulling power_x000D_Rear view camera, with extra display_x000D_Comfort driver's seat (heated and with pneumatic suspension)_x000D_Reversible fan for the engine radiator (including compressor)_x000D_Additional handle for emergency exit (to open it up from the outside)_x000D_All cab windows in 12mm Lexan Margard_x000D_Rock guards for lower rollers_x000D_STD-500 mm tracks-single grouser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takeuchi TL12 high flow track loader with FAE UML/SSL/VT-150 mastication head, with tooth type C/3 (standard)_x000D__x000D_TL12 with ROPS/FOPS Cab with air conditioning/Heat, Defroster, 17.7" rubber tracks, hydraulic quick attach, roll up Lexan door, High Flow Auxiliary Hydraulics w/second auxiliary line._x000D__x000D_FAE UML/SSL/VT-150 Universal forestry mulcher for skid steer with push-frame. </t>
   </si>
   <si>
     <t>Cat High Flow Compact Track Loader for use in high demand applications. This is a steel track machine (optional) vs rubber belt. Also included is a HM415B designed specificially for the host machine.</t>
@@ -587,7 +576,7 @@
         <v>0.649230769231</v>
       </c>
       <c r="I2">
-        <v>70.8685879997</v>
+        <v>74.1269213331</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -616,7 +605,7 @@
         <v>0.649230769231</v>
       </c>
       <c r="I3">
-        <v>114.191413638</v>
+        <v>115.763080305</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -645,7 +634,7 @@
         <v>0.649230769231</v>
       </c>
       <c r="I4">
-        <v>74.7452978886</v>
+        <v>74.55363122200001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -674,7 +663,7 @@
         <v>0.666666666667</v>
       </c>
       <c r="I5">
-        <v>43.2408100045</v>
+        <v>43.0491433378</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -703,7 +692,7 @@
         <v>0.649230769231</v>
       </c>
       <c r="I6">
-        <v>57.2749783662</v>
+        <v>61.1466450328</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -732,7 +721,7 @@
         <v>0.649230769231</v>
       </c>
       <c r="I7">
-        <v>42.7877603491</v>
+        <v>42.5960936825</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -761,7 +750,7 @@
         <v>0.833333333333</v>
       </c>
       <c r="I8">
-        <v>56.767622612</v>
+        <v>61.942622612</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -790,7 +779,7 @@
         <v>0.9375</v>
       </c>
       <c r="I9">
-        <v>99.513712625</v>
+        <v>101.813712625</v>
       </c>
     </row>
   </sheetData>
@@ -846,7 +835,7 @@
         <v>0.0326851351351</v>
       </c>
       <c r="F2">
-        <v>0.575</v>
+        <v>3.83333333333</v>
       </c>
       <c r="G2">
         <v>15.82</v>
@@ -869,7 +858,7 @@
         <v>0.0106851351351</v>
       </c>
       <c r="F3">
-        <v>0.575</v>
+        <v>2.14666666667</v>
       </c>
       <c r="G3">
         <v>15.82</v>
@@ -892,7 +881,7 @@
         <v>0.0128451351351</v>
       </c>
       <c r="F4">
-        <v>0.575</v>
+        <v>0.383333333333</v>
       </c>
       <c r="G4">
         <v>15.82</v>
@@ -915,7 +904,7 @@
         <v>0.0142851351351</v>
       </c>
       <c r="F5">
-        <v>0.575</v>
+        <v>0.383333333333</v>
       </c>
       <c r="G5">
         <v>15.82</v>
@@ -938,7 +927,7 @@
         <v>0.0146851351351</v>
       </c>
       <c r="F6">
-        <v>0.575</v>
+        <v>4.44666666667</v>
       </c>
       <c r="G6">
         <v>15.82</v>
@@ -961,7 +950,7 @@
         <v>0.0206851351351</v>
       </c>
       <c r="F7">
-        <v>0.575</v>
+        <v>0.383333333333</v>
       </c>
       <c r="G7">
         <v>15.82</v>
@@ -984,7 +973,7 @@
         <v>0.0281851351351</v>
       </c>
       <c r="F8">
-        <v>0.575</v>
+        <v>5.75</v>
       </c>
       <c r="G8">
         <v>15.82</v>
@@ -1007,7 +996,7 @@
         <v>0.0406851351351</v>
       </c>
       <c r="F9">
-        <v>0.575</v>
+        <v>2.875</v>
       </c>
       <c r="G9">
         <v>15.82</v>

--- a/machine_cost_tables.xlsx
+++ b/machine_cost_tables.xlsx
@@ -576,7 +576,7 @@
         <v>0.649230769231</v>
       </c>
       <c r="I2">
-        <v>74.1269213331</v>
+        <v>74.3185879997</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -634,7 +634,7 @@
         <v>0.649230769231</v>
       </c>
       <c r="I4">
-        <v>74.55363122200001</v>
+        <v>76.4702978886</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -663,7 +663,7 @@
         <v>0.666666666667</v>
       </c>
       <c r="I5">
-        <v>43.0491433378</v>
+        <v>44.9658100045</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -692,7 +692,7 @@
         <v>0.649230769231</v>
       </c>
       <c r="I6">
-        <v>61.1466450328</v>
+        <v>59.3833116995</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -721,7 +721,7 @@
         <v>0.649230769231</v>
       </c>
       <c r="I7">
-        <v>42.5960936825</v>
+        <v>44.5127603491</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -750,7 +750,7 @@
         <v>0.833333333333</v>
       </c>
       <c r="I8">
-        <v>61.942622612</v>
+        <v>60.505122612</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -779,7 +779,7 @@
         <v>0.9375</v>
       </c>
       <c r="I9">
-        <v>101.813712625</v>
+        <v>101.094962625</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +835,7 @@
         <v>0.0326851351351</v>
       </c>
       <c r="F2">
-        <v>3.83333333333</v>
+        <v>4.025</v>
       </c>
       <c r="G2">
         <v>15.82</v>
@@ -881,7 +881,7 @@
         <v>0.0128451351351</v>
       </c>
       <c r="F4">
-        <v>0.383333333333</v>
+        <v>2.3</v>
       </c>
       <c r="G4">
         <v>15.82</v>
@@ -904,7 +904,7 @@
         <v>0.0142851351351</v>
       </c>
       <c r="F5">
-        <v>0.383333333333</v>
+        <v>2.3</v>
       </c>
       <c r="G5">
         <v>15.82</v>
@@ -927,7 +927,7 @@
         <v>0.0146851351351</v>
       </c>
       <c r="F6">
-        <v>4.44666666667</v>
+        <v>2.68333333333</v>
       </c>
       <c r="G6">
         <v>15.82</v>
@@ -950,7 +950,7 @@
         <v>0.0206851351351</v>
       </c>
       <c r="F7">
-        <v>0.383333333333</v>
+        <v>2.3</v>
       </c>
       <c r="G7">
         <v>15.82</v>
@@ -973,7 +973,7 @@
         <v>0.0281851351351</v>
       </c>
       <c r="F8">
-        <v>5.75</v>
+        <v>4.3125</v>
       </c>
       <c r="G8">
         <v>15.82</v>
@@ -996,7 +996,7 @@
         <v>0.0406851351351</v>
       </c>
       <c r="F9">
-        <v>2.875</v>
+        <v>2.15625</v>
       </c>
       <c r="G9">
         <v>15.82</v>
